--- a/market_cap_profiles.xlsx
+++ b/market_cap_profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/FINANCIAL-SYSTEMS/dark-trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A436C82-D5E0-8D49-9325-30F486BCB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E4DDD-1583-CE43-BBFB-BAED9AA1C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro Cap" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,122 +438,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>50000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>10000000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>50000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>50000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>300000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>10000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>10000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>500000</v>
       </c>
     </row>
@@ -560,120 +568,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>100000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>5000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>30000000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>100000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>300000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>2000000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>100000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>100000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>2000000</v>
       </c>
     </row>
@@ -686,117 +698,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>500000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>10000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>50000000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>200000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2000000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>10000000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>500000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>5000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>500000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>5000000</v>
       </c>
     </row>
@@ -809,117 +828,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1000000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>50000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>100000000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>500000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>10000000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>200000000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1000000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>20000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1000000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>20000000</v>
       </c>
     </row>
@@ -932,12 +958,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -948,7 +981,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -959,7 +992,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -970,7 +1003,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -981,7 +1014,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -992,7 +1025,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -1003,7 +1036,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -1014,7 +1047,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -1025,7 +1058,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -1036,7 +1069,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10">
